--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3181295.855508031</v>
+        <v>3179002.260051438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>16.82188601375679</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>94.18838468177186</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.152727013336493</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.998630822261</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>100.5858322992709</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2545.347524345856</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4395,31 +4395,31 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.2126995006606</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>293.2765165727537</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>293.2765165727537</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>293.2765165727537</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>146.3865690748434</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>146.3865690748434</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744305</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.8611643309004</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2741.012457539437</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490667</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.1522880254209</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975141</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.593331999191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.8007528556607</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,52 +6458,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>138.9393975111062</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>80.44045370237365</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903378</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228752</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="10">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
@@ -26341,19 +26341,19 @@
         <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768832</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.14432176887</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768848</v>
+      </c>
+      <c r="N4" t="n">
         <v>9947.144321768879</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768848</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917381</v>
+        <v>-627208.4177917384</v>
       </c>
       <c r="C6" t="n">
-        <v>317904.6873646285</v>
+        <v>317904.6873646284</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.4289767344</v>
+        <v>521343.4289767345</v>
       </c>
       <c r="E6" t="n">
-        <v>269771.1387757238</v>
+        <v>269736.4008502887</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.8626576434</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.862657644</v>
       </c>
       <c r="J6" t="n">
-        <v>427578.422773097</v>
+        <v>427543.6848476613</v>
       </c>
       <c r="K6" t="n">
-        <v>546073.5078770248</v>
+        <v>546038.7699515892</v>
       </c>
       <c r="L6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="M6" t="n">
-        <v>510128.5726475675</v>
+        <v>510093.834722132</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830792</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.862657644</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.8626576436</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26793,37 +26793,37 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.836298966477</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.06312447335701</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.0852116427171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194505</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.632190443471565e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.936955798779477e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>530.1364971039801</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
